--- a/zurmo/src/test/java/projekt/automatyzacja/testdata/createContact.xlsx
+++ b/zurmo/src/test/java/projekt/automatyzacja/testdata/createContact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
   <si>
     <t>polite return</t>
   </si>
@@ -810,10 +810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1072,160 +1072,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1234,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1473,6 +1319,83 @@
         <v>43</v>
       </c>
     </row>
+    <row r="4" spans="1:25" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
